--- a/Excel_luban/Datas/RechargeConfig.xlsx
+++ b/Excel_luban/Datas/RechargeConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25905" windowHeight="12975"/>
+    <workbookView windowWidth="27945" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="RechargeConfig" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>(list#sep=;),ItemProp</t>
   </si>
   <si>
     <t>##group</t>
@@ -1255,7 +1258,7 @@
   <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I$1:M$1048576"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.5"/>
@@ -1363,7 +1366,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>10</v>
@@ -1402,26 +1405,26 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:30">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="13"/>
@@ -1448,28 +1451,28 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="15" spans="1:30">
       <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="13"/>
@@ -1499,19 +1502,19 @@
         <v>1001</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" s="3">
         <v>6</v>
@@ -1522,19 +1525,19 @@
         <v>1002</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H7" s="3">
         <v>45</v>
@@ -1545,19 +1548,19 @@
         <v>1003</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H8" s="3">
         <v>68</v>
@@ -1568,19 +1571,19 @@
         <v>1004</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H9" s="3">
         <v>118</v>
@@ -1591,19 +1594,19 @@
         <v>1005</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H10" s="3">
         <v>198</v>
@@ -1614,19 +1617,19 @@
         <v>1006</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" s="3">
         <v>648</v>

--- a/Excel_luban/Datas/RechargeConfig.xlsx
+++ b/Excel_luban/Datas/RechargeConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12975"/>
+    <workbookView windowWidth="25905" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="RechargeConfig" sheetId="1" r:id="rId1"/>
@@ -902,7 +902,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -917,7 +917,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1258,7 +1261,7 @@
   <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="B4" sqref="B4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.5"/>
@@ -1298,28 +1301,28 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:30">
       <c r="A2" s="4" t="s">
@@ -1332,28 +1335,28 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="15" spans="1:30">
       <c r="A3" s="6" t="s">
@@ -1380,74 +1383,74 @@
       <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:30">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="15" spans="1:30">
       <c r="A5" s="4" t="s">
@@ -1456,46 +1459,46 @@
       <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="3">
@@ -1504,10 +1507,10 @@
       <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="3">
@@ -1527,10 +1530,10 @@
       <c r="C7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="3">
@@ -1547,13 +1550,13 @@
       <c r="B8" s="3">
         <v>1003</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F8" s="3">
@@ -1573,10 +1576,10 @@
       <c r="C9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F9" s="3">
@@ -1596,10 +1599,10 @@
       <c r="C10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="11" t="s">
         <v>40</v>
       </c>
       <c r="F10" s="3">
@@ -1619,10 +1622,10 @@
       <c r="C11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="11" t="s">
         <v>44</v>
       </c>
       <c r="F11" s="3">
